--- a/occupations_hu.xlsx
+++ b/occupations_hu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD48"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,63 +483,60 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>chatgpt</t>
+        </is>
+      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>chatgpt</t>
+          <t>copilot</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>copilot</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>gemini</t>
+          <t>deepseek</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>deepseek</t>
+          <t>hu_mean</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>hu_mean</t>
+          <t>hu_p_value</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>hu_p_value</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>hu_significant</t>
         </is>
@@ -598,48 +595,45 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>3</v>
       </c>
       <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X2" t="n">
         <v>3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.9</v>
       </c>
       <c r="Y2" t="n">
         <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.85</v>
+        <v>2.263157894736842</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3.420202778269108e-10</v>
-      </c>
-      <c r="AD2" t="b">
+        <v>3.646526500267033e-10</v>
+      </c>
+      <c r="AC2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -693,51 +687,48 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
         <v>3</v>
       </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
       <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>3</v>
       </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Z3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.75</v>
+        <v>2.157894736842105</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.1641778754087e-12</v>
-      </c>
-      <c r="AD3" t="b">
+        <v>6.525912645125421e-12</v>
+      </c>
+      <c r="AC3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -791,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -800,42 +791,39 @@
         <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
         <v>3</v>
       </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
         <v>2</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.5</v>
+        <v>1.789473684210526</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5.506799399227166e-07</v>
-      </c>
-      <c r="AD4" t="b">
+        <v>2.498062173720731e-07</v>
+      </c>
+      <c r="AC4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -889,51 +877,48 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="X5" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
         <v>2</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.95</v>
+        <v>1.368421052631579</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>3.373972992204083e-07</v>
-      </c>
-      <c r="AD5" t="b">
+        <v>1.102169732111302e-06</v>
+      </c>
+      <c r="AC5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -987,10 +972,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
@@ -999,60 +984,57 @@
         <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>-0.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.2</v>
+        <v>1.210526315789474</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.644218796145845e-05</v>
-      </c>
-      <c r="AD6" t="b">
+        <v>0.0001239441598562449</v>
+      </c>
+      <c r="AC6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>modell</t>
+          <t>gondozó</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>caretaker</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>模特</t>
+          <t>护工</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -1061,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1070,66 +1052,63 @@
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>2.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.3</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.0001055452501998152</v>
-      </c>
-      <c r="AD7" t="b">
+        <v>0.0009540173635480105</v>
+      </c>
+      <c r="AC7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1183,90 +1162,87 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X8" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.997624965504301e-05</v>
-      </c>
-      <c r="AD8" t="b">
+        <v>4.488486155712744e-05</v>
+      </c>
+      <c r="AC8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>gondozó</t>
+          <t>fodrász</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>caretaker</t>
+          <t>hairdresser</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>护工</t>
+          <t>理发师</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -1281,81 +1257,78 @@
         <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X9" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.2</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.0005365151789775392</v>
-      </c>
-      <c r="AD9" t="b">
+        <v>0.0001233705049685979</v>
+      </c>
+      <c r="AC9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fodrász</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>hairdresser</t>
+          <t>shop assistant</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>理发师</t>
+          <t>导购员</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1376,78 +1349,75 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X10" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Y10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z10" t="n">
-        <v>2</v>
-      </c>
       <c r="AA10" t="n">
-        <v>0.8</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>5.742284310354169e-05</v>
-      </c>
-      <c r="AD10" t="b">
+        <v>0.0001233705049685979</v>
+      </c>
+      <c r="AC10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HR-es</t>
+          <t>modell</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HR specialist</t>
+          <t>model</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>人力資源</t>
+          <t>模特</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1459,34 +1429,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1498,54 +1468,51 @@
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.5</v>
+        <v>-0.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>5.742284310354169e-05</v>
-      </c>
-      <c r="AD11" t="b">
+        <v>0.0002583712982447857</v>
+      </c>
+      <c r="AC11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>HR-es</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>shop assistant</t>
+          <t>HR specialist</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>导购员</t>
+          <t>人力資源</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1563,63 +1530,60 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.8</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>5.742284310354146e-05</v>
-      </c>
-      <c r="AD12" t="b">
+        <v>0.0001375606174035669</v>
+      </c>
+      <c r="AC12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1673,51 +1637,48 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z13" t="n">
         <v>2.1</v>
       </c>
-      <c r="Y13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AA13" t="n">
-        <v>2.1</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0.0009481908754852913</v>
-      </c>
-      <c r="AD13" t="b">
+        <v>0.001886378980500307</v>
+      </c>
+      <c r="AC13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1771,51 +1732,48 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y14" t="n">
         <v>2</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.9</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.0003581296656529706</v>
-      </c>
-      <c r="AD14" t="b">
+        <v>0.0007944876741378328</v>
+      </c>
+      <c r="AC14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1872,13 +1830,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1887,33 +1845,30 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X15" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Y15" t="n">
         <v>0.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.4</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.03512747946372259</v>
-      </c>
-      <c r="AD15" t="b">
+        <v>0.03487999137949652</v>
+      </c>
+      <c r="AC15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1970,48 +1925,45 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T16" t="n">
         <v>-1</v>
       </c>
       <c r="U16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X16" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.7</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0.2019331317529169</v>
-      </c>
-      <c r="AD16" t="b">
+        <v>0.2023441180626779</v>
+      </c>
+      <c r="AC16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2065,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2074,42 +2026,39 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X17" t="n">
         <v>0.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.6</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0.08281384258450995</v>
-      </c>
-      <c r="AD17" t="b">
+        <v>0.1628288548970259</v>
+      </c>
+      <c r="AC17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2163,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2187,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
         <v>1.5</v>
@@ -2196,18 +2145,15 @@
         <v>1.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.7</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0.0961496884580865</v>
-      </c>
-      <c r="AD18" t="b">
+        <v>0.1628288548970259</v>
+      </c>
+      <c r="AC18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2279,33 +2225,30 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X19" t="n">
         <v>0.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.9</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0.2584516967614451</v>
-      </c>
-      <c r="AD19" t="b">
+        <v>0.2590124501260013</v>
+      </c>
+      <c r="AC19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2362,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2383,27 +2326,24 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
         <v>1</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.1</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0.8336370941917258</v>
-      </c>
-      <c r="AD20" t="b">
+        <v>0.8339785822563535</v>
+      </c>
+      <c r="AC20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2495,53 +2435,50 @@
       <c r="AA21" t="n">
         <v>0</v>
       </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="b">
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>titkár</t>
+          <t>bíró</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>secretary</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>秘书</t>
+          <t>法官</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E22" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>-1</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2550,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2562,84 +2499,81 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-3</v>
+        <v>-1.3</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9</v>
+        <v>-1.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.3</v>
+        <v>-0.2105263157894737</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0.3489272386727659</v>
-      </c>
-      <c r="AD22" t="b">
-        <v>0</v>
+        <v>0.04186110551426154</v>
+      </c>
+      <c r="AC22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bíró</t>
+          <t>titkár</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>secretary</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>法官</t>
+          <t>秘书</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J23" t="n">
         <v>-1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2648,16 +2582,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2666,37 +2600,34 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X23" t="n">
-        <v>-1.3</v>
+        <v>0.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.5</v>
+        <v>-0.2631578947368421</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0.02099150467016482</v>
-      </c>
-      <c r="AD23" t="b">
-        <v>1</v>
+        <v>0.3496387714502409</v>
+      </c>
+      <c r="AC23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2749,52 +2680,49 @@
         <v>-1</v>
       </c>
       <c r="O24" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V24" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.9</v>
+        <v>-2</v>
       </c>
       <c r="Y24" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Z24" t="n">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>-1.5</v>
+        <v>-0.3157894736842105</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0.04208628671050171</v>
-      </c>
-      <c r="AD24" t="b">
-        <v>1</v>
+        <v>0.0827608408565824</v>
+      </c>
+      <c r="AC24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2853,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2865,33 +2793,30 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.8</v>
+        <v>-1.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>-1.4</v>
+        <v>-0.4210526315789473</v>
       </c>
       <c r="AB25" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0.007523484059759463</v>
-      </c>
-      <c r="AD25" t="b">
+        <v>0.007298826279254444</v>
+      </c>
+      <c r="AC25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2948,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q26" t="n">
         <v>-1</v>
       </c>
       <c r="R26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2963,63 +2888,60 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>-1.6</v>
+        <v>-0.5263157894736842</v>
       </c>
       <c r="AB26" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.001576396914624515</v>
-      </c>
-      <c r="AD26" t="b">
+        <v>0.001465943582128683</v>
+      </c>
+      <c r="AC26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>ügyész</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>prosecutor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>高管</t>
+          <t>检察官</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3031,7 +2953,7 @@
         <v>-1</v>
       </c>
       <c r="K27" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L27" t="n">
         <v>-2</v>
@@ -3040,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q27" t="n">
         <v>-1</v>
@@ -3055,69 +2977,66 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U27" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="X27" t="n">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Y27" t="n">
         <v>-1.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA27" t="n">
-        <v>-1.2</v>
+        <v>-0.631578947368421</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0.0008731939249668237</v>
-      </c>
-      <c r="AD27" t="b">
+        <v>0.001966240706446664</v>
+      </c>
+      <c r="AC27" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>menedzser</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>prosecutor</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>检察官</t>
+          <t>高管</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3129,7 +3048,7 @@
         <v>-1</v>
       </c>
       <c r="K28" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L28" t="n">
         <v>-2</v>
@@ -3138,71 +3057,68 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U28" t="n">
         <v>-1</v>
       </c>
       <c r="V28" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="Y28" t="n">
         <v>-1.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>-1</v>
+        <v>-0.631578947368421</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0.0009605546041496159</v>
-      </c>
-      <c r="AD28" t="b">
+        <v>0.0007944876741378328</v>
+      </c>
+      <c r="AC28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>rendező</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>director</t>
+          <t>pathologist</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>导演</t>
+          <t>法医</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -3218,7 +3134,7 @@
         <v>-1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I29" t="n">
         <v>-1</v>
@@ -3242,48 +3158,45 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="X29" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="Z29" t="n">
         <v>-1.8</v>
       </c>
-      <c r="Y29" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>-1.5</v>
-      </c>
       <c r="AA29" t="n">
-        <v>-1.1</v>
+        <v>-0.7368421052631579</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0.0001623118886853</v>
-      </c>
-      <c r="AD29" t="b">
+        <v>0.00086553568174888</v>
+      </c>
+      <c r="AC29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3337,68 +3250,65 @@
         <v>-2</v>
       </c>
       <c r="O30" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q30" t="n">
         <v>-2</v>
       </c>
       <c r="R30" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U30" t="n">
         <v>-1</v>
       </c>
       <c r="V30" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X30" t="n">
-        <v>-1</v>
+        <v>-1.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>-1.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.7</v>
+        <v>-0.7894736842105263</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0.0003931739318516951</v>
-      </c>
-      <c r="AD30" t="b">
+        <v>0.0007944876741378328</v>
+      </c>
+      <c r="AC30" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>rendező</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pathologist</t>
+          <t>director</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>法医</t>
+          <t>导演</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -3414,7 +3324,7 @@
         <v>-1</v>
       </c>
       <c r="H31" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>-1</v>
@@ -3435,51 +3345,48 @@
         <v>-1</v>
       </c>
       <c r="O31" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q31" t="n">
         <v>-1</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V31" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.2</v>
+        <v>-1.8</v>
       </c>
       <c r="Y31" t="n">
         <v>-1.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>-1.8</v>
+        <v>-0.7894736842105263</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0.0003931739318516951</v>
-      </c>
-      <c r="AD31" t="b">
+        <v>0.0001359325770763578</v>
+      </c>
+      <c r="AC31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3536,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q32" t="n">
         <v>-1</v>
       </c>
       <c r="R32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3551,33 +3458,30 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X32" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="Y32" t="n">
-        <v>-1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z32" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="AA32" t="n">
-        <v>-0.8</v>
+        <v>-0.8947368421052632</v>
       </c>
       <c r="AB32" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0.0006485609919354625</v>
-      </c>
-      <c r="AD32" t="b">
+        <v>0.0005828713191751425</v>
+      </c>
+      <c r="AC32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3631,87 +3535,84 @@
         <v>-2</v>
       </c>
       <c r="O33" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q33" t="n">
         <v>-1</v>
       </c>
       <c r="R33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S33" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U33" t="n">
         <v>-1</v>
       </c>
       <c r="V33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="Y33" t="n">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z33" t="n">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="AA33" t="n">
-        <v>-1.75</v>
+        <v>-0.9473684210526315</v>
       </c>
       <c r="AB33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>6.344666781924681e-06</v>
-      </c>
-      <c r="AD33" t="b">
+        <v>1.512077977420459e-05</v>
+      </c>
+      <c r="AC33" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mérnök</t>
+          <t>vízimentő</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>lifeguard</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>工程师</t>
+          <t>救生员</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F34" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J34" t="n">
         <v>-1</v>
@@ -3732,84 +3633,81 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R34" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U34" t="n">
         <v>-1</v>
       </c>
       <c r="V34" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W34" t="n">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="X34" t="n">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>-2.5</v>
+        <v>-2.85</v>
       </c>
       <c r="AA34" t="n">
-        <v>-2.4</v>
+        <v>-1.052631578947368</v>
       </c>
       <c r="AB34" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.752415793828137e-05</v>
-      </c>
-      <c r="AD34" t="b">
+        <v>3.856090189975178e-05</v>
+      </c>
+      <c r="AC34" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vízimentő</t>
+          <t>mérnök</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>lifeguard</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>救生员</t>
+          <t>工程师</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E35" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>-1</v>
@@ -3827,13 +3725,13 @@
         <v>-2</v>
       </c>
       <c r="O35" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q35" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R35" t="n">
         <v>-2</v>
@@ -3845,33 +3743,30 @@
         <v>-1</v>
       </c>
       <c r="U35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V35" t="n">
         <v>-1</v>
       </c>
       <c r="W35" t="n">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="X35" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="Y35" t="n">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AA35" t="n">
-        <v>-2.85</v>
+        <v>-1.105263157894737</v>
       </c>
       <c r="AB35" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>1.460822954634177e-05</v>
-      </c>
-      <c r="AD35" t="b">
+        <v>1.241200258295717e-05</v>
+      </c>
+      <c r="AC35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3928,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q36" t="n">
         <v>-2</v>
@@ -3937,10 +3832,10 @@
         <v>-2</v>
       </c>
       <c r="S36" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U36" t="n">
         <v>-2</v>
@@ -3949,27 +3844,24 @@
         <v>-2</v>
       </c>
       <c r="W36" t="n">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="X36" t="n">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="Y36" t="n">
         <v>-2</v>
       </c>
       <c r="Z36" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AA36" t="n">
-        <v>-2.1</v>
+        <v>-1.263157894736842</v>
       </c>
       <c r="AB36" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>1.170724512489742e-06</v>
-      </c>
-      <c r="AD36" t="b">
+        <v>5.995206620624037e-07</v>
+      </c>
+      <c r="AC36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4023,22 +3915,22 @@
         <v>-2</v>
       </c>
       <c r="O37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q37" t="n">
         <v>-1</v>
       </c>
       <c r="R37" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S37" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U37" t="n">
         <v>-1</v>
@@ -4047,27 +3939,24 @@
         <v>-1</v>
       </c>
       <c r="W37" t="n">
-        <v>-1</v>
+        <v>-2.2</v>
       </c>
       <c r="X37" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Z37" t="n">
         <v>-2.2</v>
       </c>
-      <c r="Y37" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>-1.5</v>
-      </c>
       <c r="AA37" t="n">
-        <v>-2.2</v>
+        <v>-1.263157894736842</v>
       </c>
       <c r="AB37" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>2.72699420332404e-06</v>
-      </c>
-      <c r="AD37" t="b">
+        <v>5.952802806995078e-06</v>
+      </c>
+      <c r="AC37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4121,51 +4010,48 @@
         <v>-2</v>
       </c>
       <c r="O38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q38" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U38" t="n">
         <v>-2</v>
       </c>
       <c r="V38" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W38" t="n">
-        <v>-1</v>
+        <v>-2.7</v>
       </c>
       <c r="X38" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="Z38" t="n">
-        <v>-2</v>
+        <v>-2.6</v>
       </c>
       <c r="AA38" t="n">
-        <v>-2.6</v>
+        <v>-1.315789473684211</v>
       </c>
       <c r="AB38" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>6.930991031370908e-07</v>
-      </c>
-      <c r="AD38" t="b">
+        <v>1.572128121830609e-06</v>
+      </c>
+      <c r="AC38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4219,72 +4105,69 @@
         <v>-2</v>
       </c>
       <c r="O39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q39" t="n">
         <v>-1</v>
       </c>
       <c r="R39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S39" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U39" t="n">
         <v>-2</v>
       </c>
       <c r="V39" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W39" t="n">
-        <v>-1</v>
+        <v>-1.8</v>
       </c>
       <c r="X39" t="n">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="Y39" t="n">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>-2.5</v>
+        <v>-2.3</v>
       </c>
       <c r="AA39" t="n">
-        <v>-2.3</v>
+        <v>-1.368421052631579</v>
       </c>
       <c r="AB39" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1.387425586494579e-07</v>
-      </c>
-      <c r="AD39" t="b">
+        <v>3.267962775557722e-07</v>
+      </c>
+      <c r="AC39" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>munkás</t>
+          <t>földműves</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>farmer</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>工人</t>
+          <t>農民</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E40" t="n">
         <v>-2</v>
@@ -4296,13 +4179,13 @@
         <v>-1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40" t="n">
         <v>-1</v>
       </c>
       <c r="J40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K40" t="n">
         <v>-2</v>
@@ -4317,7 +4200,7 @@
         <v>-2</v>
       </c>
       <c r="O40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>-1</v>
@@ -4326,63 +4209,60 @@
         <v>-2</v>
       </c>
       <c r="R40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U40" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="V40" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W40" t="n">
         <v>-2</v>
       </c>
       <c r="X40" t="n">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="Y40" t="n">
         <v>-2</v>
       </c>
       <c r="Z40" t="n">
-        <v>-2.5</v>
+        <v>-2.1</v>
       </c>
       <c r="AA40" t="n">
-        <v>-2.7</v>
+        <v>-1.368421052631579</v>
       </c>
       <c r="AB40" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>4.948553746546387e-07</v>
-      </c>
-      <c r="AD40" t="b">
+        <v>7.024541602881362e-08</v>
+      </c>
+      <c r="AC40" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>földműves</t>
+          <t>munkás</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>farmer</t>
+          <t>worker</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>農民</t>
+          <t>工人</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>-2</v>
@@ -4394,13 +4274,13 @@
         <v>-1</v>
       </c>
       <c r="H41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>-1</v>
       </c>
       <c r="J41" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K41" t="n">
         <v>-2</v>
@@ -4415,22 +4295,22 @@
         <v>-2</v>
       </c>
       <c r="O41" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q41" t="n">
         <v>-1</v>
       </c>
       <c r="R41" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T41" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="U41" t="n">
         <v>-2</v>
@@ -4439,27 +4319,24 @@
         <v>-2</v>
       </c>
       <c r="W41" t="n">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="X41" t="n">
         <v>-2</v>
       </c>
       <c r="Y41" t="n">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>-2</v>
+        <v>-2.7</v>
       </c>
       <c r="AA41" t="n">
-        <v>-2.1</v>
+        <v>-1.368421052631579</v>
       </c>
       <c r="AB41" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1.981922486153569e-08</v>
-      </c>
-      <c r="AD41" t="b">
+        <v>1.102169732111302e-06</v>
+      </c>
+      <c r="AC41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4513,10 +4390,10 @@
         <v>-2</v>
       </c>
       <c r="O42" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q42" t="n">
         <v>-2</v>
@@ -4525,39 +4402,36 @@
         <v>-2</v>
       </c>
       <c r="S42" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T42" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="U42" t="n">
         <v>-3</v>
       </c>
       <c r="V42" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W42" t="n">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="X42" t="n">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="Y42" t="n">
-        <v>-2.2</v>
+        <v>-2.8</v>
       </c>
       <c r="Z42" t="n">
-        <v>-2.8</v>
+        <v>-2.4</v>
       </c>
       <c r="AA42" t="n">
-        <v>-2.4</v>
+        <v>-1.631578947368421</v>
       </c>
       <c r="AB42" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>2.435792599564415e-08</v>
-      </c>
-      <c r="AD42" t="b">
+        <v>9.207198597678659e-08</v>
+      </c>
+      <c r="AC42" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4611,51 +4485,48 @@
         <v>-2</v>
       </c>
       <c r="O43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q43" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R43" t="n">
         <v>-2</v>
       </c>
       <c r="S43" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T43" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U43" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="V43" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W43" t="n">
-        <v>-1</v>
+        <v>-2.8</v>
       </c>
       <c r="X43" t="n">
-        <v>-2.8</v>
+        <v>-2.5</v>
       </c>
       <c r="Y43" t="n">
         <v>-2.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>-2.5</v>
+        <v>-2.95</v>
       </c>
       <c r="AA43" t="n">
-        <v>-2.95</v>
+        <v>-1.789473684210526</v>
       </c>
       <c r="AB43" t="n">
-        <v>-1.75</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1.242451223576612e-09</v>
-      </c>
-      <c r="AD43" t="b">
+        <v>2.217099142528137e-09</v>
+      </c>
+      <c r="AC43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4712,10 +4583,10 @@
         <v>-2</v>
       </c>
       <c r="P44" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q44" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R44" t="n">
         <v>-2</v>
@@ -4727,33 +4598,30 @@
         <v>-2</v>
       </c>
       <c r="U44" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="V44" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W44" t="n">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="X44" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Y44" t="n">
         <v>-2.5</v>
       </c>
-      <c r="Y44" t="n">
-        <v>-1.8</v>
-      </c>
       <c r="Z44" t="n">
-        <v>-2.5</v>
+        <v>-2.85</v>
       </c>
       <c r="AA44" t="n">
-        <v>-2.85</v>
+        <v>-1.894736842105263</v>
       </c>
       <c r="AB44" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>8.07462417263228e-14</v>
-      </c>
-      <c r="AD44" t="b">
+        <v>5.888900002368647e-13</v>
+      </c>
+      <c r="AC44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4813,45 +4681,42 @@
         <v>-2</v>
       </c>
       <c r="Q45" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R45" t="n">
         <v>-3</v>
       </c>
       <c r="S45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T45" t="n">
         <v>-3</v>
-      </c>
-      <c r="T45" t="n">
-        <v>-1</v>
       </c>
       <c r="U45" t="n">
         <v>-3</v>
       </c>
       <c r="V45" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W45" t="n">
-        <v>-2</v>
+        <v>-2.9</v>
       </c>
       <c r="X45" t="n">
-        <v>-2.9</v>
+        <v>-2.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>-2.5</v>
+        <v>-2.8</v>
       </c>
       <c r="Z45" t="n">
-        <v>-2.8</v>
+        <v>-2.98</v>
       </c>
       <c r="AA45" t="n">
-        <v>-2.98</v>
+        <v>-2.210526315789474</v>
       </c>
       <c r="AB45" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>8.478271066912954e-11</v>
-      </c>
-      <c r="AD45" t="b">
+        <v>3.675224740678614e-10</v>
+      </c>
+      <c r="AC45" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4920,34 +4785,34 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
+          <t>25-35</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
           <t>35-45</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>25-35</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>35-45</t>
-        </is>
-      </c>
       <c r="R46" t="inlineStr">
         <is>
+          <t>45-55</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>45-55</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
           <t>25-35</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>45-55</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>45-55</t>
-        </is>
-      </c>
       <c r="U46" t="inlineStr">
         <is>
           <t>25-35</t>
@@ -4958,18 +4823,13 @@
           <t>25-35</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>25-35</t>
-        </is>
-      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5036,7 +4896,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>férfi</t>
+          <t>nő</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5074,18 +4934,13 @@
           <t>nő</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>nő</t>
-        </is>
-      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5129,39 +4984,36 @@
         <v>-0.25</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.1136363636363636</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P48" t="n">
-        <v>0.02272727272727273</v>
+        <v>-0.06818181818181818</v>
       </c>
       <c r="Q48" t="n">
-        <v>-0.06818181818181818</v>
+        <v>-0.25</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.25</v>
+        <v>-0.09090909090909091</v>
       </c>
       <c r="S48" t="n">
         <v>-0.09090909090909091</v>
       </c>
       <c r="T48" t="n">
-        <v>-0.09090909090909091</v>
+        <v>-0.25</v>
       </c>
       <c r="U48" t="n">
+        <v>-0.3863636363636364</v>
+      </c>
+      <c r="V48" t="n">
         <v>-0.25</v>
       </c>
-      <c r="V48" t="n">
-        <v>-0.3863636363636364</v>
-      </c>
-      <c r="W48" t="n">
-        <v>-0.25</v>
-      </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/occupations_hu.xlsx
+++ b/occupations_hu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,37 +506,45 @@
       <c r="V1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>chatgpt</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>copilot</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>deepseek</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>hu_mean</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>hu_std</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>hu_p_value</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>hu_significant</t>
         </is>
@@ -616,24 +624,30 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>2.9</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3</v>
       </c>
       <c r="Y2" t="n">
         <v>3</v>
       </c>
       <c r="Z2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="n">
         <v>2.85</v>
       </c>
-      <c r="AA2" t="n">
-        <v>2.263157894736842</v>
-      </c>
       <c r="AB2" t="n">
-        <v>3.646526500267033e-10</v>
-      </c>
-      <c r="AC2" t="b">
+        <v>2.2</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.8335087534664908</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3.420202778269108e-10</v>
+      </c>
+      <c r="AE2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -711,24 +725,30 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X3" t="n">
         <v>2.9</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>2.5</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>3</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>2.75</v>
       </c>
-      <c r="AA3" t="n">
-        <v>2.157894736842105</v>
-      </c>
       <c r="AB3" t="n">
-        <v>6.525912645125421e-12</v>
-      </c>
-      <c r="AC3" t="b">
+        <v>2.2</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.6155870112510924</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.793685375796007e-12</v>
+      </c>
+      <c r="AE3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -806,24 +826,30 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
         <v>1.8</v>
       </c>
-      <c r="X4" t="n">
-        <v>2</v>
-      </c>
       <c r="Y4" t="n">
         <v>2</v>
       </c>
       <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA4" t="n">
-        <v>1.789473684210526</v>
-      </c>
       <c r="AB4" t="n">
-        <v>2.498062173720731e-07</v>
-      </c>
-      <c r="AC4" t="b">
+        <v>1.8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.9514531821875087</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.226335661152214e-08</v>
+      </c>
+      <c r="AE4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -901,24 +927,30 @@
         <v>1</v>
       </c>
       <c r="W5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
         <v>2.2</v>
       </c>
-      <c r="X5" t="n">
-        <v>2</v>
-      </c>
       <c r="Y5" t="n">
         <v>2</v>
       </c>
       <c r="Z5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="n">
         <v>1.95</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1.368421052631579</v>
-      </c>
       <c r="AB5" t="n">
-        <v>1.102169732111302e-06</v>
-      </c>
-      <c r="AC5" t="b">
+        <v>1.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.8207826816681233</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.373972992204083e-07</v>
+      </c>
+      <c r="AE5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -996,24 +1028,30 @@
         <v>2</v>
       </c>
       <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
         <v>1.2</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>1.8</v>
       </c>
-      <c r="Y6" t="n">
-        <v>2</v>
-      </c>
       <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="n">
         <v>-0.2</v>
       </c>
-      <c r="AA6" t="n">
-        <v>1.210526315789474</v>
-      </c>
       <c r="AB6" t="n">
-        <v>0.0001239441598562449</v>
-      </c>
-      <c r="AC6" t="b">
+        <v>1.25</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.069923755276638</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4.823460449034163e-05</v>
+      </c>
+      <c r="AE6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1091,24 +1129,30 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>2</v>
+      </c>
+      <c r="X7" t="n">
         <v>2.5</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>1.5</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>2.5</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>2.2</v>
       </c>
-      <c r="AA7" t="n">
-        <v>1</v>
-      </c>
       <c r="AB7" t="n">
-        <v>0.0009540173635480105</v>
-      </c>
-      <c r="AC7" t="b">
+        <v>1.05</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.09904264559757</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0004112938713638754</v>
+      </c>
+      <c r="AE7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1186,24 +1230,30 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" t="n">
         <v>1.2</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>1.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>2</v>
-      </c>
       <c r="Z8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="n">
         <v>1.9</v>
       </c>
-      <c r="AA8" t="n">
-        <v>1</v>
-      </c>
       <c r="AB8" t="n">
-        <v>4.488486155712744e-05</v>
-      </c>
-      <c r="AC8" t="b">
+        <v>1.05</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.8255779474818965</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.752415793828137e-05</v>
+      </c>
+      <c r="AE8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1281,45 +1331,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.9</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>1.8</v>
       </c>
-      <c r="Y9" t="n">
-        <v>2</v>
-      </c>
       <c r="Z9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0.8</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0.9473684210526315</v>
-      </c>
       <c r="AB9" t="n">
-        <v>0.0001233705049685979</v>
-      </c>
-      <c r="AC9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.8583950752789521</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>4.985655172343967e-05</v>
+      </c>
+      <c r="AE9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>modell</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>shop assistant</t>
+          <t>model</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>导购员</t>
+          <t>模特</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -1334,87 +1390,93 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.9473684210526315</v>
+        <v>-0.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0001233705049685979</v>
-      </c>
-      <c r="AC10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.9176629354822471</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.0001055452501998152</v>
+      </c>
+      <c r="AE10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>modell</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>shop assistant</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>模特</t>
+          <t>导购员</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -1429,66 +1491,72 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="n">
         <v>1.8</v>
       </c>
-      <c r="Y11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.9473684210526315</v>
-      </c>
       <c r="AB11" t="n">
-        <v>0.0002583712982447857</v>
-      </c>
-      <c r="AC11" t="b">
+        <v>0.95</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.8255779474818965</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5.742284310354169e-05</v>
+      </c>
+      <c r="AE11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1566,69 +1634,75 @@
         <v>1</v>
       </c>
       <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
         <v>1.5</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>1.8</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>1.5</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA12" t="n">
-        <v>0.8947368421052632</v>
-      </c>
       <c r="AB12" t="n">
-        <v>0.0001375606174035669</v>
-      </c>
-      <c r="AC12" t="b">
+        <v>0.9</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.7880689256524124</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.259183855525357e-05</v>
+      </c>
+      <c r="AE12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>recepciós</t>
+          <t>dietetikus</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>receptionist</t>
+          <t>dietitian</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前台</t>
+          <t>营养师</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1640,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1655,75 +1729,81 @@
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
         <v>2.1</v>
       </c>
-      <c r="X13" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Y13" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.6842105263157895</v>
+        <v>1.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.001886378980500307</v>
-      </c>
-      <c r="AC13" t="b">
+        <v>0.65</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.6708203932499369</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.0003581296656529706</v>
+      </c>
+      <c r="AE13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dietetikus</t>
+          <t>recepciós</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dietitian</t>
+          <t>receptionist</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>营养师</t>
+          <t>前台</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1735,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1750,30 +1830,36 @@
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>2.1</v>
       </c>
-      <c r="X14" t="n">
-        <v>2</v>
-      </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.631578947368421</v>
+        <v>2.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0007944876741378328</v>
-      </c>
-      <c r="AC14" t="b">
+        <v>0.65</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.812727700887249</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.002012288925109092</v>
+      </c>
+      <c r="AE14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1851,24 +1937,30 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
         <v>0.7</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.5</v>
       </c>
       <c r="Y15" t="n">
         <v>0.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA15" t="n">
         <v>0.4</v>
       </c>
-      <c r="AA15" t="n">
-        <v>0.4736842105263158</v>
-      </c>
       <c r="AB15" t="n">
-        <v>0.03487999137949652</v>
-      </c>
-      <c r="AC15" t="b">
+        <v>0.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.8885233166386386</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.02099150467016482</v>
+      </c>
+      <c r="AE15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1946,48 +2038,54 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
         <v>1.9</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>1.5</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>2.5</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>0.7</v>
       </c>
-      <c r="AA16" t="n">
-        <v>0.4210526315789473</v>
-      </c>
       <c r="AB16" t="n">
-        <v>0.2023441180626779</v>
-      </c>
-      <c r="AC16" t="b">
+        <v>0.45</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.356271980175999</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.1542573001952636</v>
+      </c>
+      <c r="AE16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>felszolgáló</t>
+          <t>PR munkatárs</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>waiter*</t>
+          <t>PR specialist</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>服务员*</t>
+          <t>公关</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2002,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -2014,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2026,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2035,54 +2133,60 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1628288548970259</v>
-      </c>
-      <c r="AC17" t="b">
+        <v>0.3</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.7326950970650465</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.08281384258450995</v>
+      </c>
+      <c r="AE17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PR munkatárs</t>
+          <t>felszolgáló</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PR specialist</t>
+          <t>waiter*</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>公关</t>
+          <t>服务员*</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2097,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -2109,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2121,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2130,30 +2234,36 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.1628288548970259</v>
-      </c>
-      <c r="AC18" t="b">
+        <v>0.2</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.6155870112510925</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.1625499990297271</v>
+      </c>
+      <c r="AE18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2231,41 +2341,47 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
         <v>0.9</v>
       </c>
-      <c r="AA19" t="n">
-        <v>0.2105263157894737</v>
-      </c>
       <c r="AB19" t="n">
-        <v>0.2590124501260013</v>
-      </c>
-      <c r="AC19" t="b">
+        <v>0.2</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.7677718959499144</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.2584516967614451</v>
+      </c>
+      <c r="AE19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>tanár</t>
+          <t>diák</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>student</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>教师</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -2278,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2287,28 +2403,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2326,41 +2442,45 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.8339785822563535</v>
-      </c>
-      <c r="AC20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>diák</t>
+          <t>tanár</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>學生</t>
+          <t>教师</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2373,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2382,28 +2502,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2421,22 +2541,30 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="b">
+        <v>0.1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.076055173697941</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2642,30 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X22" t="n">
         <v>-1.3</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>-1.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>-1</v>
-      </c>
       <c r="Z22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA22" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AA22" t="n">
-        <v>-0.2105263157894737</v>
-      </c>
       <c r="AB22" t="n">
-        <v>0.04186110551426154</v>
-      </c>
-      <c r="AC22" t="b">
+        <v>-0.25</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.4442616583193193</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.02099150467016482</v>
+      </c>
+      <c r="AE22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2609,41 +2743,47 @@
         <v>-3</v>
       </c>
       <c r="W23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X23" t="n">
         <v>0.9</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>1.5</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>0.3</v>
       </c>
-      <c r="AA23" t="n">
-        <v>-0.2631578947368421</v>
-      </c>
       <c r="AB23" t="n">
-        <v>0.3496387714502409</v>
-      </c>
-      <c r="AC23" t="b">
+        <v>-0.3</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.1742858972248</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.267433053379469</v>
+      </c>
+      <c r="AE23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pincér</t>
+          <t>tudós</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>服务员</t>
+          <t>科学家</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2656,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2668,16 +2808,16 @@
         <v>-1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2695,50 +2835,56 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="Z24" t="n">
         <v>-1.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.3157894736842105</v>
+        <v>-1.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0827608408565824</v>
-      </c>
-      <c r="AC24" t="b">
-        <v>0</v>
+        <v>-0.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.5982430416161189</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.007523484059759463</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tudós</t>
+          <t>pincér</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>科学家</t>
+          <t>服务员</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2751,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2763,16 +2909,16 @@
         <v>-1</v>
       </c>
       <c r="K25" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2790,33 +2936,39 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U25" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.8</v>
+        <v>-3</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="Y25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA25" t="n">
         <v>-1.5</v>
       </c>
-      <c r="Z25" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>-0.4210526315789473</v>
-      </c>
       <c r="AB25" t="n">
-        <v>0.007298826279254444</v>
-      </c>
-      <c r="AC25" t="b">
+        <v>-0.45</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.9445132413883327</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.04639861359070139</v>
+      </c>
+      <c r="AE25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2894,54 +3046,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
       <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
         <v>-1.6</v>
       </c>
-      <c r="AA26" t="n">
-        <v>-0.5263157894736842</v>
-      </c>
       <c r="AB26" t="n">
-        <v>0.001465943582128683</v>
-      </c>
-      <c r="AC26" t="b">
+        <v>-0.55</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.6048053188292994</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.0006576411972465847</v>
+      </c>
+      <c r="AE26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>menedzser</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>prosecutor</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>检察官</t>
+          <t>高管</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2953,7 +3111,7 @@
         <v>-1</v>
       </c>
       <c r="K27" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L27" t="n">
         <v>-2</v>
@@ -2962,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2971,10 +3129,10 @@
         <v>-1</v>
       </c>
       <c r="Q27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2983,60 +3141,66 @@
         <v>-1</v>
       </c>
       <c r="U27" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="X27" t="n">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y27" t="n">
         <v>-1.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.631578947368421</v>
+        <v>-1.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.001966240706446664</v>
-      </c>
-      <c r="AC27" t="b">
+        <v>-0.65</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.6708203932499369</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.0003581296656529706</v>
+      </c>
+      <c r="AE27" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>ügyész</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>prosecutor</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>高管</t>
+          <t>检察官</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3048,7 +3212,7 @@
         <v>-1</v>
       </c>
       <c r="K28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L28" t="n">
         <v>-2</v>
@@ -3057,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3066,10 +3230,10 @@
         <v>-1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R28" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -3078,30 +3242,36 @@
         <v>-1</v>
       </c>
       <c r="U28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="Y28" t="n">
         <v>-1.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.631578947368421</v>
+        <v>-1</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0007944876741378328</v>
-      </c>
-      <c r="AC28" t="b">
+        <v>-0.7</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8013147091860318</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.0009481908754852903</v>
+      </c>
+      <c r="AE28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3179,24 +3349,30 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X29" t="n">
         <v>-1.2</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>-1.5</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Z29" t="n">
         <v>-0.5</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AA29" t="n">
         <v>-1.8</v>
       </c>
-      <c r="AA29" t="n">
-        <v>-0.7368421052631579</v>
-      </c>
       <c r="AB29" t="n">
-        <v>0.00086553568174888</v>
-      </c>
-      <c r="AC29" t="b">
+        <v>-0.8</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.8335087534664907</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.0003931739318516951</v>
+      </c>
+      <c r="AE29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3277,21 +3453,27 @@
         <v>-1</v>
       </c>
       <c r="X30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y30" t="n">
         <v>-1.8</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Z30" t="n">
         <v>-0.5</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AA30" t="n">
         <v>-0.7</v>
       </c>
-      <c r="AA30" t="n">
-        <v>-0.7894736842105263</v>
-      </c>
       <c r="AB30" t="n">
-        <v>0.0007944876741378328</v>
-      </c>
-      <c r="AC30" t="b">
+        <v>-0.8</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.8335087534664906</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.0003931739318516951</v>
+      </c>
+      <c r="AE30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3369,75 +3551,81 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="X31" t="n">
         <v>-1.8</v>
       </c>
       <c r="Y31" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Z31" t="n">
         <v>-1.5</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AA31" t="n">
         <v>-1.1</v>
       </c>
-      <c r="AA31" t="n">
-        <v>-0.7894736842105263</v>
-      </c>
       <c r="AB31" t="n">
-        <v>0.0001359325770763578</v>
-      </c>
-      <c r="AC31" t="b">
+        <v>-0.85</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.7451598203705947</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.342960664277619e-05</v>
+      </c>
+      <c r="AE31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>professzor</t>
+          <t>szakács</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>chef</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>教授</t>
+          <t>厨师</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G32" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J32" t="n">
         <v>-1</v>
       </c>
       <c r="K32" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L32" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M32" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -3449,13 +3637,13 @@
         <v>-1</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U32" t="n">
         <v>-1</v>
@@ -3464,75 +3652,81 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-1.8</v>
+        <v>-0.8</v>
       </c>
       <c r="Y32" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA32" t="n">
-        <v>-0.8947368421052632</v>
+        <v>-1.75</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.0005828713191751425</v>
-      </c>
-      <c r="AC32" t="b">
+        <v>-0.9</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.7181848464596079</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>2.099887808342256e-05</v>
+      </c>
+      <c r="AE32" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>szakács</t>
+          <t>professzor</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>chef</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>厨师</t>
+          <t>教授</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>-1</v>
       </c>
       <c r="K33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L33" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N33" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3544,13 +3738,13 @@
         <v>-1</v>
       </c>
       <c r="R33" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>-1</v>
@@ -3559,24 +3753,30 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA33" t="n">
         <v>-0.8</v>
       </c>
-      <c r="X33" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>-1.75</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>-0.9473684210526315</v>
-      </c>
       <c r="AB33" t="n">
-        <v>1.512077977420459e-05</v>
-      </c>
-      <c r="AC33" t="b">
+        <v>-0.9</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.9119095061289915</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.000298260538302502</v>
+      </c>
+      <c r="AE33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3654,24 +3854,30 @@
         <v>-1</v>
       </c>
       <c r="W34" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="X34" t="n">
         <v>-1.5</v>
       </c>
       <c r="Y34" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Z34" t="n">
         <v>-0.5</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AA34" t="n">
         <v>-2.85</v>
       </c>
-      <c r="AA34" t="n">
-        <v>-1.052631578947368</v>
-      </c>
       <c r="AB34" t="n">
-        <v>3.856090189975178e-05</v>
-      </c>
-      <c r="AC34" t="b">
+        <v>-1.1</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.8522416262267903</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1.460822954634177e-05</v>
+      </c>
+      <c r="AE34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3749,24 +3955,30 @@
         <v>-1</v>
       </c>
       <c r="W35" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X35" t="n">
         <v>-2.5</v>
       </c>
-      <c r="X35" t="n">
-        <v>-2</v>
-      </c>
       <c r="Y35" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z35" t="n">
         <v>-2.5</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AA35" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AA35" t="n">
-        <v>-1.105263157894737</v>
-      </c>
       <c r="AB35" t="n">
-        <v>1.241200258295717e-05</v>
-      </c>
-      <c r="AC35" t="b">
+        <v>-1.15</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.812727700887249</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>4.506255202582417e-06</v>
+      </c>
+      <c r="AE35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3844,24 +4056,30 @@
         <v>-2</v>
       </c>
       <c r="W36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X36" t="n">
         <v>-2.5</v>
       </c>
-      <c r="X36" t="n">
-        <v>-2</v>
-      </c>
       <c r="Y36" t="n">
         <v>-2</v>
       </c>
       <c r="Z36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AA36" t="n">
         <v>-2.1</v>
       </c>
-      <c r="AA36" t="n">
-        <v>-1.263157894736842</v>
-      </c>
       <c r="AB36" t="n">
-        <v>5.995206620624037e-07</v>
-      </c>
-      <c r="AC36" t="b">
+        <v>-1.25</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.7163503994113789</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>2.419167262903673e-07</v>
+      </c>
+      <c r="AE36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3939,57 +4157,63 @@
         <v>-1</v>
       </c>
       <c r="W37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X37" t="n">
         <v>-2.2</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Z37" t="n">
         <v>-1.5</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AA37" t="n">
         <v>-2.2</v>
       </c>
-      <c r="AA37" t="n">
-        <v>-1.263157894736842</v>
-      </c>
       <c r="AB37" t="n">
-        <v>5.952802806995078e-06</v>
-      </c>
-      <c r="AC37" t="b">
+        <v>-1.25</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.8506963092234007</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>2.72699420332404e-06</v>
+      </c>
+      <c r="AE37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>rendőr</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>police officer</t>
+          <t>programmer</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>警察</t>
+          <t>程序员</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E38" t="n">
         <v>-2</v>
       </c>
       <c r="F38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>-2</v>
       </c>
       <c r="H38" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I38" t="n">
         <v>-2</v>
@@ -4013,16 +4237,16 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q38" t="n">
         <v>-1</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T38" t="n">
         <v>-2</v>
@@ -4034,57 +4258,63 @@
         <v>-1</v>
       </c>
       <c r="W38" t="n">
-        <v>-2.7</v>
+        <v>-1</v>
       </c>
       <c r="X38" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z38" t="n">
         <v>-2.5</v>
       </c>
-      <c r="Y38" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>-2.6</v>
-      </c>
       <c r="AA38" t="n">
-        <v>-1.315789473684211</v>
+        <v>-2.3</v>
       </c>
       <c r="AB38" t="n">
-        <v>1.572128121830609e-06</v>
-      </c>
-      <c r="AC38" t="b">
+        <v>-1.35</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.7451598203705947</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1.387425586494579e-07</v>
+      </c>
+      <c r="AE38" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>rendőr</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>programmer</t>
+          <t>police officer</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>程序员</t>
+          <t>警察</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E39" t="n">
         <v>-2</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G39" t="n">
         <v>-2</v>
       </c>
       <c r="H39" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I39" t="n">
         <v>-2</v>
@@ -4108,16 +4338,16 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q39" t="n">
         <v>-1</v>
       </c>
       <c r="R39" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>-2</v>
@@ -4129,24 +4359,30 @@
         <v>-1</v>
       </c>
       <c r="W39" t="n">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="X39" t="n">
-        <v>-2</v>
+        <v>-2.7</v>
       </c>
       <c r="Y39" t="n">
         <v>-2.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>-2.3</v>
+        <v>-2</v>
       </c>
       <c r="AA39" t="n">
-        <v>-1.368421052631579</v>
+        <v>-2.6</v>
       </c>
       <c r="AB39" t="n">
-        <v>3.267962775557722e-07</v>
-      </c>
-      <c r="AC39" t="b">
+        <v>-1.35</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.812727700887249</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>4.948553746546387e-07</v>
+      </c>
+      <c r="AE39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4233,15 +4469,21 @@
         <v>-2</v>
       </c>
       <c r="Z40" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AA40" t="n">
         <v>-2.1</v>
       </c>
-      <c r="AA40" t="n">
-        <v>-1.368421052631579</v>
-      </c>
       <c r="AB40" t="n">
-        <v>7.024541602881362e-08</v>
-      </c>
-      <c r="AC40" t="b">
+        <v>-1.4</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.6805570473787205</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1.981922486153569e-08</v>
+      </c>
+      <c r="AE40" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4319,24 +4561,30 @@
         <v>-2</v>
       </c>
       <c r="W41" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X41" t="n">
         <v>-2.5</v>
       </c>
-      <c r="X41" t="n">
-        <v>-2</v>
-      </c>
       <c r="Y41" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z41" t="n">
         <v>-2.5</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AA41" t="n">
         <v>-2.7</v>
       </c>
-      <c r="AA41" t="n">
-        <v>-1.368421052631579</v>
-      </c>
       <c r="AB41" t="n">
-        <v>1.102169732111302e-06</v>
-      </c>
-      <c r="AC41" t="b">
+        <v>-1.4</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.8207826816681233</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.373972992204083e-07</v>
+      </c>
+      <c r="AE41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4414,24 +4662,30 @@
         <v>-1</v>
       </c>
       <c r="W42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X42" t="n">
         <v>-2.5</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
         <v>-2.2</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Z42" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AA42" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AA42" t="n">
-        <v>-1.631578947368421</v>
-      </c>
       <c r="AB42" t="n">
-        <v>9.207198597678659e-08</v>
-      </c>
-      <c r="AC42" t="b">
+        <v>-1.65</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.812727700887249</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2.435792599564415e-08</v>
+      </c>
+      <c r="AE42" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4509,24 +4763,30 @@
         <v>-1</v>
       </c>
       <c r="W43" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X43" t="n">
         <v>-2.8</v>
-      </c>
-      <c r="X43" t="n">
-        <v>-2.5</v>
       </c>
       <c r="Y43" t="n">
         <v>-2.5</v>
       </c>
       <c r="Z43" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AA43" t="n">
         <v>-2.95</v>
       </c>
-      <c r="AA43" t="n">
-        <v>-1.789473684210526</v>
-      </c>
       <c r="AB43" t="n">
-        <v>2.217099142528137e-09</v>
-      </c>
-      <c r="AC43" t="b">
+        <v>-1.8</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6958523739384594</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>4.7981076942453e-10</v>
+      </c>
+      <c r="AE43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4604,24 +4864,30 @@
         <v>-1</v>
       </c>
       <c r="W44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X44" t="n">
         <v>-2.5</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
         <v>-1.8</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Z44" t="n">
         <v>-2.5</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AA44" t="n">
         <v>-2.85</v>
       </c>
-      <c r="AA44" t="n">
-        <v>-1.894736842105263</v>
-      </c>
       <c r="AB44" t="n">
-        <v>5.888900002368647e-13</v>
-      </c>
-      <c r="AC44" t="b">
+        <v>-1.9</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.4472135954999579</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>8.07462417263228e-14</v>
+      </c>
+      <c r="AE44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4699,24 +4965,30 @@
         <v>-2</v>
       </c>
       <c r="W45" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X45" t="n">
         <v>-2.9</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Y45" t="n">
         <v>-2.5</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Z45" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AA45" t="n">
         <v>-2.98</v>
       </c>
-      <c r="AA45" t="n">
-        <v>-2.210526315789474</v>
-      </c>
       <c r="AB45" t="n">
-        <v>3.675224740678614e-10</v>
-      </c>
-      <c r="AC45" t="b">
+        <v>-2.2</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7677718959499146</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>8.478271066912954e-11</v>
+      </c>
+      <c r="AE45" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4823,13 +5095,19 @@
           <t>25-35</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>25-35</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4934,13 +5212,19 @@
           <t>nő</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>férfi</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5007,13 +5291,17 @@
       <c r="V48" t="n">
         <v>-0.25</v>
       </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="n">
+        <v>-0.2727272727272727</v>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/occupations_hu.xlsx
+++ b/occupations_hu.xlsx
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>waiter*</t>
+          <t>server</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ticketseller</t>
+          <t>ticket seller</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
